--- a/Usability Forsøg - Multi-effect boards/Reaction Cards/Reaction Card Random generator and printing.xlsx
+++ b/Usability Forsøg - Multi-effect boards/Reaction Cards/Reaction Card Random generator and printing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test1\Documents\P8\Usability Forsøg - Multi-effect boards\Reaction Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC46910-2219-43CF-8BC2-F905B9A57BE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B57A66-C2BD-479D-A997-F197111163CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" activeTab="1" xr2:uid="{53E8E04B-1218-4618-934E-6439EDE81446}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{53E8E04B-1218-4618-934E-6439EDE81446}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomize" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Advanced</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>mark those words that best describe your experience with it.</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>http://www.uxforthemasses.com/product-reaction-cards/</t>
   </si>
 </sst>
 </file>
@@ -740,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0E6249-E5C7-4063-95D7-579FA6D55B79}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,8 +774,8 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <f ca="1">RAND()</f>
-        <v>0.35419336119136124</v>
+        <f t="shared" ref="B2:B33" ca="1" si="0">RAND()</f>
+        <v>0.24555827485397408</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,8 +783,8 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <f ca="1">RAND()</f>
-        <v>0.314126513551652</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46989851469219834</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -786,8 +792,8 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f ca="1">RAND()</f>
-        <v>0.3260011908741336</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54860852954981076</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,8 +801,8 @@
         <v>63</v>
       </c>
       <c r="B5">
-        <f ca="1">RAND()</f>
-        <v>0.76088335446305233</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39181269661492435</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,8 +810,8 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <f ca="1">RAND()</f>
-        <v>0.25341222745565473</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83067440183130015</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -813,8 +819,11 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <f ca="1">RAND()</f>
-        <v>9.4752346694885303E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95788985336662413</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -822,8 +831,11 @@
         <v>51</v>
       </c>
       <c r="B8">
-        <f ca="1">RAND()</f>
-        <v>0.30587612619523874</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47341002981371394</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,8 +843,8 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <f ca="1">RAND()</f>
-        <v>0.62035480935997545</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80384644950821249</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -840,8 +852,8 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <f ca="1">RAND()</f>
-        <v>0.83204780033626802</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81641042601046732</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -849,8 +861,8 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <f ca="1">RAND()</f>
-        <v>0.1777922523552663</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58014447501543853</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,8 +870,8 @@
         <v>59</v>
       </c>
       <c r="B12">
-        <f ca="1">RAND()</f>
-        <v>0.878385636374169</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42721435962421261</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,8 +879,8 @@
         <v>58</v>
       </c>
       <c r="B13">
-        <f ca="1">RAND()</f>
-        <v>3.1384239085287979E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53727211653549634</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,8 +888,8 @@
         <v>54</v>
       </c>
       <c r="B14">
-        <f ca="1">RAND()</f>
-        <v>0.82148166458304261</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98453733895066464</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -885,8 +897,8 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <f ca="1">RAND()</f>
-        <v>0.23985448418573585</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45572241505953226</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -894,8 +906,8 @@
         <v>57</v>
       </c>
       <c r="B16">
-        <f ca="1">RAND()</f>
-        <v>0.11829498531803051</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30915940850790502</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,8 +915,8 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <f ca="1">RAND()</f>
-        <v>0.52077040326865887</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37659639703367098</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,8 +924,8 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <f ca="1">RAND()</f>
-        <v>0.94216766185675604</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23305788075744283</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,8 +933,8 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <f ca="1">RAND()</f>
-        <v>0.35935257088222594</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37075205899429231</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,8 +942,8 @@
         <v>53</v>
       </c>
       <c r="B20">
-        <f ca="1">RAND()</f>
-        <v>0.68490940549126567</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49016279223266224</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,8 +951,8 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <f ca="1">RAND()</f>
-        <v>0.25830849261712874</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52043327474519752</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,8 +960,8 @@
         <v>55</v>
       </c>
       <c r="B22">
-        <f ca="1">RAND()</f>
-        <v>0.707252653927679</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63626447817081588</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,8 +969,8 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <f ca="1">RAND()</f>
-        <v>0.38199884313130383</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64102830323569171</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,8 +978,8 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <f ca="1">RAND()</f>
-        <v>0.4440616078955687</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84560361426425723</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,8 +987,8 @@
         <v>43</v>
       </c>
       <c r="B25">
-        <f ca="1">RAND()</f>
-        <v>0.28528488961827847</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78350717079120058</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,8 +996,8 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <f ca="1">RAND()</f>
-        <v>0.71289475625795817</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78532589327866631</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -993,8 +1005,8 @@
         <v>16</v>
       </c>
       <c r="B27">
-        <f ca="1">RAND()</f>
-        <v>0.27702342162986193</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26139360754297836</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,8 +1014,8 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <f ca="1">RAND()</f>
-        <v>0.75883401563470732</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83316539827568681</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,8 +1023,8 @@
         <v>49</v>
       </c>
       <c r="B29">
-        <f ca="1">RAND()</f>
-        <v>8.4285587883805246E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75748899957652194</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,8 +1032,8 @@
         <v>41</v>
       </c>
       <c r="B30">
-        <f ca="1">RAND()</f>
-        <v>0.10923684216195551</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6081027138965982</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,8 +1041,8 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <f ca="1">RAND()</f>
-        <v>0.14272660189091291</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2256179826483804</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,8 +1050,8 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <f ca="1">RAND()</f>
-        <v>0.53497150636030955</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60092326757273351</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,8 +1059,8 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <f ca="1">RAND()</f>
-        <v>0.6107677843464101</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65935035327417568</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,8 +1068,8 @@
         <v>52</v>
       </c>
       <c r="B34">
-        <f ca="1">RAND()</f>
-        <v>0.61722835546683807</v>
+        <f t="shared" ref="B34:B65" ca="1" si="1">RAND()</f>
+        <v>0.92670219442873647</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,8 +1077,8 @@
         <v>21</v>
       </c>
       <c r="B35">
-        <f ca="1">RAND()</f>
-        <v>0.76801583106389759</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3112035700780944</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1074,8 +1086,8 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <f ca="1">RAND()</f>
-        <v>0.98835753678612492</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.81553246498540832</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1083,8 +1095,8 @@
         <v>19</v>
       </c>
       <c r="B37">
-        <f ca="1">RAND()</f>
-        <v>0.18339227258852409</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65803350866566324</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,8 +1104,8 @@
         <v>62</v>
       </c>
       <c r="B38">
-        <f ca="1">RAND()</f>
-        <v>0.77048684382924781</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67556230700126629</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,8 +1113,8 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <f ca="1">RAND()</f>
-        <v>0.9320574474607638</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17228024552273602</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,8 +1122,8 @@
         <v>10</v>
       </c>
       <c r="B40">
-        <f ca="1">RAND()</f>
-        <v>0.44519564821871183</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46931018082630815</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,8 +1131,8 @@
         <v>18</v>
       </c>
       <c r="B41">
-        <f ca="1">RAND()</f>
-        <v>0.54588359545416631</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38563136925422814</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,8 +1140,8 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <f ca="1">RAND()</f>
-        <v>0.93415469564285902</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59161666755060716</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1137,8 +1149,8 @@
         <v>33</v>
       </c>
       <c r="B43">
-        <f ca="1">RAND()</f>
-        <v>0.27078327725836837</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93843799632936054</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1146,8 +1158,8 @@
         <v>24</v>
       </c>
       <c r="B44">
-        <f ca="1">RAND()</f>
-        <v>0.53352957214329566</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67997635378177834</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,8 +1167,8 @@
         <v>37</v>
       </c>
       <c r="B45">
-        <f ca="1">RAND()</f>
-        <v>0.30821514775690673</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.1632037216699427E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1164,8 +1176,8 @@
         <v>30</v>
       </c>
       <c r="B46">
-        <f ca="1">RAND()</f>
-        <v>0.84094774141519912</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79832245966637805</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,8 +1185,8 @@
         <v>20</v>
       </c>
       <c r="B47">
-        <f ca="1">RAND()</f>
-        <v>0.45817491258532628</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95790422885832671</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,8 +1194,8 @@
         <v>35</v>
       </c>
       <c r="B48">
-        <f ca="1">RAND()</f>
-        <v>0.89453080373249372</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52759295061966105</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,8 +1203,8 @@
         <v>23</v>
       </c>
       <c r="B49">
-        <f ca="1">RAND()</f>
-        <v>0.89216119249622461</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91705430297249069</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1200,8 +1212,8 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <f ca="1">RAND()</f>
-        <v>0.80718588958216919</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71376867174811531</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,8 +1221,8 @@
         <v>25</v>
       </c>
       <c r="B51">
-        <f ca="1">RAND()</f>
-        <v>0.91653588708411071</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59639314980479552</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,8 +1230,8 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <f ca="1">RAND()</f>
-        <v>5.8191611474178728E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44346860418609724</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,8 +1239,8 @@
         <v>36</v>
       </c>
       <c r="B53">
-        <f ca="1">RAND()</f>
-        <v>0.90420955864920616</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2332126101637314</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1236,8 +1248,8 @@
         <v>8</v>
       </c>
       <c r="B54">
-        <f ca="1">RAND()</f>
-        <v>0.75101917639990967</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23670708395470064</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,8 +1257,8 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <f ca="1">RAND()</f>
-        <v>0.34745546505074076</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25067482593382096</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,8 +1266,8 @@
         <v>29</v>
       </c>
       <c r="B56">
-        <f ca="1">RAND()</f>
-        <v>0.7161192476450825</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.2773273908340772E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1263,8 +1275,8 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f ca="1">RAND()</f>
-        <v>0.11705535360804831</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71891968690873642</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,8 +1284,8 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <f ca="1">RAND()</f>
-        <v>0.95415711992366448</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92129300662732916</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,8 +1293,8 @@
         <v>9</v>
       </c>
       <c r="B59">
-        <f ca="1">RAND()</f>
-        <v>0.92160601968418554</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50982632071960987</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,8 +1302,8 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <f ca="1">RAND()</f>
-        <v>0.79347778684989156</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.21943215143749784</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,8 +1311,8 @@
         <v>48</v>
       </c>
       <c r="B61">
-        <f ca="1">RAND()</f>
-        <v>0.66091206042724571</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57304483048925225</v>
       </c>
       <c r="C61" s="1"/>
     </row>
@@ -1309,8 +1321,8 @@
         <v>32</v>
       </c>
       <c r="B62">
-        <f ca="1">RAND()</f>
-        <v>0.12981987286931929</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.9725339407820681E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1318,8 +1330,8 @@
         <v>14</v>
       </c>
       <c r="B63">
-        <f ca="1">RAND()</f>
-        <v>0.19091488891215447</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97529595091834909</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1327,8 +1339,8 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <f ca="1">RAND()</f>
-        <v>0.59753533793060765</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44842721431990162</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,8 +1348,8 @@
         <v>40</v>
       </c>
       <c r="B65">
-        <f ca="1">RAND()</f>
-        <v>9.4259974970808624E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91600547307873148</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE5507-443D-4528-B002-E8FB4EA0C19A}">
   <dimension ref="D1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/Usability Forsøg - Multi-effect boards/Reaction Cards/Reaction Card Random generator and printing.xlsx
+++ b/Usability Forsøg - Multi-effect boards/Reaction Cards/Reaction Card Random generator and printing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test1\Documents\P8\Usability Forsøg - Multi-effect boards\Reaction Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B57A66-C2BD-479D-A997-F197111163CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4FFE74-6FD8-43B5-97ED-6FFF5F987713}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{53E8E04B-1218-4618-934E-6439EDE81446}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" activeTab="1" xr2:uid="{53E8E04B-1218-4618-934E-6439EDE81446}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomize" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0E6249-E5C7-4063-95D7-579FA6D55B79}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -775,7 +775,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B33" ca="1" si="0">RAND()</f>
-        <v>0.24555827485397408</v>
+        <v>0.70994908945317259</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46989851469219834</v>
+        <v>0.49400686876343003</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54860852954981076</v>
+        <v>0.74561437191223778</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39181269661492435</v>
+        <v>0.40546442167218055</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83067440183130015</v>
+        <v>0.13938557243460648</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95788985336662413</v>
+        <v>0.15832775422725853</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47341002981371394</v>
+        <v>0.50799082802832574</v>
       </c>
       <c r="D8" t="s">
         <v>74</v>
@@ -844,7 +844,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80384644950821249</v>
+        <v>4.9551261305924132E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81641042601046732</v>
+        <v>0.86767573426488176</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58014447501543853</v>
+        <v>0.71137114354171604</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42721435962421261</v>
+        <v>0.5616141884506427</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53727211653549634</v>
+        <v>3.4210743066279137E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98453733895066464</v>
+        <v>0.8801634820469435</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,7 +898,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45572241505953226</v>
+        <v>0.82603053439328267</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30915940850790502</v>
+        <v>0.98698707314632539</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37659639703367098</v>
+        <v>9.5979958985218827E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23305788075744283</v>
+        <v>0.57337000488222922</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37075205899429231</v>
+        <v>0.6051176188750812</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49016279223266224</v>
+        <v>0.13642850952962815</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52043327474519752</v>
+        <v>0.46317420876401938</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63626447817081588</v>
+        <v>0.22617302052424459</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64102830323569171</v>
+        <v>0.11943827525080275</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84560361426425723</v>
+        <v>0.17788131879382041</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78350717079120058</v>
+        <v>0.17000781794815356</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78532589327866631</v>
+        <v>0.6772171553090276</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26139360754297836</v>
+        <v>0.33249893596401714</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83316539827568681</v>
+        <v>0.69354716280702655</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75748899957652194</v>
+        <v>0.60842213875163309</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6081027138965982</v>
+        <v>0.83740944365531178</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2256179826483804</v>
+        <v>8.5290023446610075E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60092326757273351</v>
+        <v>0.17012064458032272</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65935035327417568</v>
+        <v>0.819802954782895</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B34">
         <f t="shared" ref="B34:B65" ca="1" si="1">RAND()</f>
-        <v>0.92670219442873647</v>
+        <v>0.1736951544848313</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3112035700780944</v>
+        <v>0.40676494678626796</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81553246498540832</v>
+        <v>0.48870579908922529</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65803350866566324</v>
+        <v>0.2854853487521174</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67556230700126629</v>
+        <v>8.4604614049427096E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17228024552273602</v>
+        <v>0.66027032642824146</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46931018082630815</v>
+        <v>0.71725981960449581</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38563136925422814</v>
+        <v>5.8913398957921581E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59161666755060716</v>
+        <v>0.22997485602065648</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93843799632936054</v>
+        <v>0.44936382000703667</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67997635378177834</v>
+        <v>0.29024875464105671</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1632037216699427E-2</v>
+        <v>0.47618574914504719</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79832245966637805</v>
+        <v>0.1604265625379484</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95790422885832671</v>
+        <v>5.8313589651174391E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52759295061966105</v>
+        <v>0.2828216927810675</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91705430297249069</v>
+        <v>0.13931182349724991</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71376867174811531</v>
+        <v>0.77990790600196569</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59639314980479552</v>
+        <v>0.23841004763354567</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44346860418609724</v>
+        <v>0.21835024200615416</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2332126101637314</v>
+        <v>0.83692657712465857</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23670708395470064</v>
+        <v>0.56547270404062311</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25067482593382096</v>
+        <v>6.7671065561605404E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2773273908340772E-2</v>
+        <v>0.51809623784961656</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71891968690873642</v>
+        <v>0.69895679808653832</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92129300662732916</v>
+        <v>0.38414395370899257</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50982632071960987</v>
+        <v>0.54944468796733392</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21943215143749784</v>
+        <v>0.60622152128903317</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57304483048925225</v>
+        <v>0.58989980949264187</v>
       </c>
       <c r="C61" s="1"/>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9725339407820681E-2</v>
+        <v>1.0902399052968081E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97529595091834909</v>
+        <v>0.38046804404703827</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44842721431990162</v>
+        <v>0.4267324636455182</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91600547307873148</v>
+        <v>0.22171649150769701</v>
       </c>
     </row>
   </sheetData>
@@ -1370,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE5507-443D-4528-B002-E8FB4EA0C19A}">
   <dimension ref="D1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Usability Forsøg - Multi-effect boards/Reaction Cards/Reaction Card Random generator and printing.xlsx
+++ b/Usability Forsøg - Multi-effect boards/Reaction Cards/Reaction Card Random generator and printing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test1\Documents\P8\Usability Forsøg - Multi-effect boards\Reaction Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumenter\SVN_DelingImellemAAU\P8\Usability Forsøg - Multi-effect boards\Reaction Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4FFE74-6FD8-43B5-97ED-6FFF5F987713}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27B3882C-02F8-47C3-B4BC-F93D5E898FE4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" activeTab="1" xr2:uid="{53E8E04B-1218-4618-934E-6439EDE81446}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Randomize!$A$1:$B$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Print!$D$4:$H$21</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -771,56 +771,56 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B33" ca="1" si="0">RAND()</f>
-        <v>0.70994908945317259</v>
+        <f ca="1">RAND()</f>
+        <v>0.23701550525957205</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49400686876343003</v>
+        <f ca="1">RAND()</f>
+        <v>0.6749440943905145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74561437191223778</v>
+        <f ca="1">RAND()</f>
+        <v>0.78048747545054231</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40546442167218055</v>
+        <f ca="1">RAND()</f>
+        <v>0.97065376107639278</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13938557243460648</v>
+        <f ca="1">RAND()</f>
+        <v>9.1776461974892087E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15832775422725853</v>
+        <f ca="1">RAND()</f>
+        <v>0.84574816350541182</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
@@ -828,11 +828,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50799082802832574</v>
+        <f ca="1">RAND()</f>
+        <v>3.568763366439609E-2</v>
       </c>
       <c r="D8" t="s">
         <v>74</v>
@@ -840,516 +840,516 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9551261305924132E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.2740264859426329</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.86767573426488176</v>
+        <f ca="1">RAND()</f>
+        <v>0.75875259809201001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71137114354171604</v>
+        <f ca="1">RAND()</f>
+        <v>0.23685860829395533</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5616141884506427</v>
+        <f ca="1">RAND()</f>
+        <v>0.43842216820573654</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4210743066279137E-2</v>
+        <f ca="1">RAND()</f>
+        <v>2.0468838230796815E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8801634820469435</v>
+        <f ca="1">RAND()</f>
+        <v>0.29200987736364536</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82603053439328267</v>
+        <f ca="1">RAND()</f>
+        <v>0.86063444249273779</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98698707314632539</v>
+        <f ca="1">RAND()</f>
+        <v>0.94819164341807949</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5979958985218827E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.37696461975833695</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57337000488222922</v>
+        <f ca="1">RAND()</f>
+        <v>0.50444743170897099</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6051176188750812</v>
+        <f ca="1">RAND()</f>
+        <v>0.39215382844757352</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13642850952962815</v>
+        <f ca="1">RAND()</f>
+        <v>0.80632028405745104</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.46317420876401938</v>
+        <f ca="1">RAND()</f>
+        <v>0.55328704861533451</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22617302052424459</v>
+        <f ca="1">RAND()</f>
+        <v>0.19762552550558454</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.11943827525080275</v>
+        <f ca="1">RAND()</f>
+        <v>5.5069358904179633E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17788131879382041</v>
+        <f ca="1">RAND()</f>
+        <v>9.9396642043685368E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17000781794815356</v>
+        <f ca="1">RAND()</f>
+        <v>0.93155338962062872</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6772171553090276</v>
+        <f ca="1">RAND()</f>
+        <v>0.72705973175309047</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33249893596401714</v>
+        <f ca="1">RAND()</f>
+        <v>0.61165211563033195</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.69354716280702655</v>
+        <f ca="1">RAND()</f>
+        <v>0.87030677337895501</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60842213875163309</v>
+        <f ca="1">RAND()</f>
+        <v>0.97628402016002225</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83740944365531178</v>
+        <f ca="1">RAND()</f>
+        <v>0.10168373395286034</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5290023446610075E-2</v>
+        <f ca="1">RAND()</f>
+        <v>7.0841838385140909E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17012064458032272</v>
+        <f ca="1">RAND()</f>
+        <v>0.28740426967220212</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.819802954782895</v>
+        <f ca="1">RAND()</f>
+        <v>0.52650418222269646</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B65" ca="1" si="1">RAND()</f>
-        <v>0.1736951544848313</v>
+        <f ca="1">RAND()</f>
+        <v>0.38810418151295123</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.40676494678626796</v>
+        <f ca="1">RAND()</f>
+        <v>0.32974062890655109</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.48870579908922529</v>
+        <f ca="1">RAND()</f>
+        <v>0.87486848411158491</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2854853487521174</v>
+        <f ca="1">RAND()</f>
+        <v>2.1641641765874686E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B38">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4604614049427096E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.80160722768363002</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.66027032642824146</v>
+        <f ca="1">RAND()</f>
+        <v>0.45589801665204965</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B40">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.71725981960449581</v>
+        <f ca="1">RAND()</f>
+        <v>0.2320836177427904</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B41">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.8913398957921581E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.79444175241764481</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22997485602065648</v>
+        <f ca="1">RAND()</f>
+        <v>0.38447678465605162</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44936382000703667</v>
+        <f ca="1">RAND()</f>
+        <v>0.55772773461250291</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.29024875464105671</v>
+        <f ca="1">RAND()</f>
+        <v>0.3462249902170732</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47618574914504719</v>
+        <f ca="1">RAND()</f>
+        <v>0.28973637957534759</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B46">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1604265625379484</v>
+        <f ca="1">RAND()</f>
+        <v>0.89124702239692977</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.8313589651174391E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.58402339247062973</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2828216927810675</v>
+        <f ca="1">RAND()</f>
+        <v>0.31587204015781467</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.13931182349724991</v>
+        <f ca="1">RAND()</f>
+        <v>0.71860391718478678</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B50">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.77990790600196569</v>
+        <f ca="1">RAND()</f>
+        <v>0.15092428033613026</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B51">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.23841004763354567</v>
+        <f ca="1">RAND()</f>
+        <v>0.81746517097566151</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21835024200615416</v>
+        <f ca="1">RAND()</f>
+        <v>0.11131562296331499</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.83692657712465857</v>
+        <f ca="1">RAND()</f>
+        <v>0.46164960852053238</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B54">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56547270404062311</v>
+        <f ca="1">RAND()</f>
+        <v>0.79143424793452921</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.7671065561605404E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.73203475078362967</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B56">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51809623784961656</v>
+        <f ca="1">RAND()</f>
+        <v>0.34309742791465081</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.69895679808653832</v>
+        <f ca="1">RAND()</f>
+        <v>0.57271796068161296</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B58">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38414395370899257</v>
+        <f ca="1">RAND()</f>
+        <v>0.5241527224285436</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B59">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54944468796733392</v>
+        <f ca="1">RAND()</f>
+        <v>0.49971711811350916</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.60622152128903317</v>
+        <f ca="1">RAND()</f>
+        <v>0.53802091891773918</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58989980949264187</v>
+        <f ca="1">RAND()</f>
+        <v>0.34037363003672105</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0902399052968081E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.17720472915690133</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B63">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38046804404703827</v>
+        <f ca="1">RAND()</f>
+        <v>0.9194392652687231</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B64">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4267324636455182</v>
+        <f ca="1">RAND()</f>
+        <v>0.5013130952365652</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B65">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22171649150769701</v>
+        <f ca="1">RAND()</f>
+        <v>7.7420244148051709E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1368,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE5507-443D-4528-B002-E8FB4EA0C19A}">
-  <dimension ref="D1:K21"/>
+  <dimension ref="D1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,6 +1380,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -1389,6 +1392,9 @@
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1398,6 +1404,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1406,308 +1415,293 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
+    <row r="4" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="4:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="5" t="str">
         <f>Randomize!A2</f>
-        <v>Inspiring</v>
+        <v>Straight Forward</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>Randomize!A15</f>
-        <v>Flexible</v>
+        <v>High quality</v>
       </c>
       <c r="F7" s="5" t="str">
         <f>Randomize!A28</f>
-        <v>Unattractive</v>
+        <v>Reliable</v>
       </c>
       <c r="G7" s="5" t="str">
         <f>Randomize!A41</f>
-        <v>Collaborative</v>
+        <v>Organized</v>
       </c>
       <c r="H7" s="5" t="str">
         <f>Randomize!A54</f>
-        <v>Powerful</v>
+        <v>Ineffective</v>
       </c>
     </row>
     <row r="8" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="str">
         <f>Randomize!A3</f>
-        <v>Exciting</v>
+        <v>Simplistic</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>Randomize!A16</f>
-        <v>Easy to use</v>
+        <v>Creative</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>Randomize!A29</f>
-        <v>Intimidating</v>
+        <v>Approachable</v>
       </c>
       <c r="G8" s="5" t="str">
         <f>Randomize!A42</f>
-        <v>Creative</v>
+        <v>Familiar</v>
       </c>
       <c r="H8" s="5" t="str">
         <f>Randomize!A55</f>
-        <v>Overwhelming</v>
+        <v>Essential</v>
       </c>
     </row>
     <row r="9" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="str">
         <f>Randomize!A4</f>
-        <v>Approachable</v>
+        <v>Advanced</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>Randomize!A17</f>
-        <v>Personal</v>
+        <v>Patronizing</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>Randomize!A30</f>
-        <v>Trustworthy</v>
+        <v>Poor quality</v>
       </c>
       <c r="G9" s="5" t="str">
         <f>Randomize!A43</f>
-        <v>Consistent</v>
+        <v>Unattractive</v>
       </c>
       <c r="H9" s="5" t="str">
         <f>Randomize!A56</f>
-        <v>Simplistic</v>
+        <v>Time-consuming</v>
       </c>
     </row>
     <row r="10" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="str">
         <f>Randomize!A5</f>
-        <v>Patronizing</v>
+        <v>Helpful</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>Randomize!A18</f>
-        <v>High quality</v>
+        <v>Intimidating</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>Randomize!A31</f>
-        <v>Annoying</v>
+        <v>Undesirable</v>
       </c>
       <c r="G10" s="5" t="str">
         <f>Randomize!A44</f>
-        <v>Complex</v>
+        <v>Innovative</v>
       </c>
       <c r="H10" s="5" t="str">
         <f>Randomize!A57</f>
-        <v>Unrefined</v>
+        <v>Dull</v>
       </c>
     </row>
     <row r="11" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="str">
         <f>Randomize!A6</f>
-        <v>Clean</v>
+        <v>Cutting edge</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>Randomize!A19</f>
-        <v>Engaging</v>
+        <v>Relevant</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>Randomize!A32</f>
-        <v>Helpful</v>
+        <v>Rigid</v>
       </c>
       <c r="G11" s="5" t="str">
         <f>Randomize!A45</f>
-        <v>Inconsistent</v>
+        <v>Exciting</v>
       </c>
       <c r="H11" s="5" t="str">
         <f>Randomize!A58</f>
-        <v>Cutting edge</v>
+        <v>Impersonal</v>
       </c>
     </row>
     <row r="12" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="str">
         <f>Randomize!A7</f>
-        <v>Comprehensive</v>
+        <v>Useful</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>Randomize!A20</f>
-        <v>Unpredictable</v>
+        <v>Annoying</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>Randomize!A33</f>
-        <v>Impersonal</v>
+        <v>Inconsistent</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>Randomize!A46</f>
-        <v>Confusing</v>
+        <v>Overwhelming</v>
       </c>
       <c r="H12" s="5" t="str">
         <f>Randomize!A59</f>
-        <v>Attractive</v>
+        <v>Dated</v>
       </c>
     </row>
     <row r="13" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="5" t="str">
         <f>Randomize!A8</f>
-        <v>Difficult</v>
+        <v>Attractive</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>Randomize!A21</f>
-        <v>Relevant</v>
+        <v>Fast</v>
       </c>
       <c r="F13" s="5" t="str">
         <f>Randomize!A34</f>
-        <v>Inviting</v>
+        <v>Friendly</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>Randomize!A47</f>
-        <v>Reliable</v>
+        <v>Unrefined</v>
       </c>
       <c r="H13" s="5" t="str">
         <f>Randomize!A60</f>
-        <v>Effective</v>
+        <v>Powerful</v>
       </c>
     </row>
     <row r="14" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="str">
         <f>Randomize!A9</f>
-        <v>Undesirable</v>
+        <v>Consistent</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>Randomize!A22</f>
-        <v>Irrelevant</v>
+        <v>Difficult</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>Randomize!A35</f>
-        <v>Comfortable</v>
+        <v>Collaborative</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>Randomize!A48</f>
-        <v>Stressful</v>
+        <v>Complex</v>
       </c>
       <c r="H14" s="5" t="str">
         <f>Randomize!A61</f>
-        <v>Desirable</v>
+        <v>Effective</v>
       </c>
     </row>
     <row r="15" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="str">
         <f>Randomize!A10</f>
-        <v>Dated</v>
+        <v>Efficient</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>Randomize!A23</f>
-        <v>Satisfying</v>
+        <v>Personal</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>Randomize!A36</f>
-        <v>Poor quality</v>
+        <v>Predictable</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>Randomize!A49</f>
-        <v>Rigid</v>
+        <v>Entertaining</v>
       </c>
       <c r="H15" s="5" t="str">
         <f>Randomize!A62</f>
-        <v>Straight Forward</v>
+        <v>Exceptional</v>
       </c>
     </row>
     <row r="16" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="str">
         <f>Randomize!A11</f>
-        <v>Entertaining</v>
+        <v>Irrelevant</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>Randomize!A24</f>
-        <v>Predictable</v>
+        <v>Inviting</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>Randomize!A37</f>
-        <v>Fast</v>
+        <v>Trustworthy</v>
       </c>
       <c r="G16" s="5" t="str">
         <f>Randomize!A50</f>
-        <v>Busy</v>
+        <v>Stressful</v>
       </c>
       <c r="H16" s="5" t="str">
         <f>Randomize!A63</f>
-        <v>Professional</v>
+        <v>Unconventional</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="str">
         <f>Randomize!A12</f>
-        <v>Useful</v>
+        <v>Comfortable</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>Randomize!A25</f>
-        <v>Innovative</v>
+        <v>Satisfying</v>
       </c>
       <c r="F17" s="5" t="str">
         <f>Randomize!A38</f>
-        <v>Efficient</v>
+        <v>Flexible</v>
       </c>
       <c r="G17" s="5" t="str">
         <f>Randomize!A51</f>
-        <v>Friendly</v>
+        <v>Comprehensive</v>
       </c>
       <c r="H17" s="5" t="str">
         <f>Randomize!A64</f>
-        <v>Advanced</v>
+        <v>Confusing</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="str">
         <f>Randomize!A13</f>
-        <v>Organized</v>
+        <v>Convenient</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>Randomize!A26</f>
-        <v>Time-consuming</v>
+        <v>Professional</v>
       </c>
       <c r="F18" s="5" t="str">
         <f>Randomize!A39</f>
-        <v>Essential</v>
+        <v>Clean</v>
       </c>
       <c r="G18" s="5" t="str">
         <f>Randomize!A52</f>
-        <v>Unconventional</v>
+        <v>Engaging</v>
       </c>
       <c r="H18" s="5" t="str">
         <f>Randomize!A65</f>
-        <v>Ineffective</v>
+        <v>Inspiring</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="5" t="str">
         <f>Randomize!A14</f>
-        <v>Dull</v>
+        <v>Desirable</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>Randomize!A27</f>
-        <v>Familiar</v>
+        <v>Unpredictable</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>Randomize!A40</f>
-        <v>Exceptional</v>
+        <v>Easy to use</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>Randomize!A53</f>
-        <v>Convenient</v>
+        <v>Busy</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1717,9 +1711,6 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1728,8 +1719,19 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="3" max="16383" man="1"/>
